--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,264 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B12" t="n">
+        <v>109</v>
+      </c>
+      <c r="C12" t="n">
+        <v>109</v>
+      </c>
+      <c r="D12" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21600</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B13" t="n">
+        <v>105</v>
+      </c>
+      <c r="C13" t="n">
+        <v>119.6999969482422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" t="n">
+        <v>117.3000030517578</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B14" t="n">
+        <v>118.9499969482422</v>
+      </c>
+      <c r="C14" t="n">
+        <v>118.9499969482422</v>
+      </c>
+      <c r="D14" t="n">
+        <v>111</v>
+      </c>
+      <c r="E14" t="n">
+        <v>111.9000015258789</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B15" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>111.6999969482422</v>
+      </c>
+      <c r="D15" t="n">
+        <v>110</v>
+      </c>
+      <c r="E15" t="n">
+        <v>110.1999969482422</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14400</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B16" t="n">
+        <v>110.1999969482422</v>
+      </c>
+      <c r="C16" t="n">
+        <v>110.1999969482422</v>
+      </c>
+      <c r="D16" t="n">
+        <v>105.0999984741211</v>
+      </c>
+      <c r="E16" t="n">
+        <v>105.5500030517578</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24800</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1154,7 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1205,7 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1256,7 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1307,7 +1315,264 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B17" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>107.8000030517578</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" t="n">
+        <v>106.6500015258789</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23200</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B18" t="n">
+        <v>106.4499969482422</v>
+      </c>
+      <c r="C18" t="n">
+        <v>106.5999984741211</v>
+      </c>
+      <c r="D18" t="n">
+        <v>103.5500030517578</v>
+      </c>
+      <c r="E18" t="n">
+        <v>103.5500030517578</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B19" t="n">
+        <v>105.6999969482422</v>
+      </c>
+      <c r="C19" t="n">
+        <v>105.6999969482422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>99</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28800</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B20" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="C20" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="D20" t="n">
+        <v>97.69999694824219</v>
+      </c>
+      <c r="E20" t="n">
+        <v>97.84999847412109</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32800</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B21" t="n">
+        <v>95.55000305175781</v>
+      </c>
+      <c r="C21" t="n">
+        <v>97</v>
+      </c>
+      <c r="D21" t="n">
+        <v>90.30000305175781</v>
+      </c>
+      <c r="E21" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29600</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1419,7 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1470,7 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1521,7 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1572,7 +1580,264 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90</v>
+      </c>
+      <c r="C22" t="n">
+        <v>90</v>
+      </c>
+      <c r="D22" t="n">
+        <v>85</v>
+      </c>
+      <c r="E22" t="n">
+        <v>85</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16800</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B23" t="n">
+        <v>81.55000305175781</v>
+      </c>
+      <c r="C23" t="n">
+        <v>81.55000305175781</v>
+      </c>
+      <c r="D23" t="n">
+        <v>77.09999847412109</v>
+      </c>
+      <c r="E23" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="F23" t="n">
+        <v>51200</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B24" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="C24" t="n">
+        <v>86</v>
+      </c>
+      <c r="D24" t="n">
+        <v>81.15000152587891</v>
+      </c>
+      <c r="E24" t="n">
+        <v>85.55000305175781</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B25" t="n">
+        <v>86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>96.90000152587891</v>
+      </c>
+      <c r="D25" t="n">
+        <v>86</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95</v>
+      </c>
+      <c r="F25" t="n">
+        <v>68800</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B26" t="n">
+        <v>97</v>
+      </c>
+      <c r="C26" t="n">
+        <v>98.94999694824219</v>
+      </c>
+      <c r="D26" t="n">
+        <v>95</v>
+      </c>
+      <c r="E26" t="n">
+        <v>98.30000305175781</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>31</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1376"/>
+  <dimension ref="A1:Q1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62589,6 +62589,231 @@
       <c r="P1376" t="inlineStr"/>
       <c r="Q1376" t="inlineStr"/>
     </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>88</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>81.23000335693359</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>81.33000183105469</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1377" t="inlineStr"/>
+      <c r="O1377" t="inlineStr"/>
+      <c r="P1377" t="inlineStr"/>
+      <c r="Q1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>82</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>77.26999664306641</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>78.05999755859375</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>31200</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1378" t="inlineStr"/>
+      <c r="O1378" t="inlineStr"/>
+      <c r="P1378" t="inlineStr"/>
+      <c r="Q1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>79.65000152587891</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>81.95999908447266</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>79.65000152587891</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>80.69999694824219</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>16800</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1379" t="inlineStr"/>
+      <c r="O1379" t="inlineStr"/>
+      <c r="P1379" t="inlineStr"/>
+      <c r="Q1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>80.30000305175781</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>81.19999694824219</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>80.09999847412109</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>80.12999725341797</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1380" t="inlineStr"/>
+      <c r="O1380" t="inlineStr"/>
+      <c r="P1380" t="inlineStr"/>
+      <c r="Q1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>80.12000274658203</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>80.52999877929688</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>76.30999755859375</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1381" t="inlineStr"/>
+      <c r="O1381" t="inlineStr"/>
+      <c r="P1381" t="inlineStr"/>
+      <c r="Q1381" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1381"/>
+  <dimension ref="A1:Q1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62814,6 +62814,231 @@
       <c r="P1381" t="inlineStr"/>
       <c r="Q1381" t="inlineStr"/>
     </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>82.84999847412109</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>82.84999847412109</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>75.05000305175781</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>80.44999694824219</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1382" t="inlineStr"/>
+      <c r="O1382" t="inlineStr"/>
+      <c r="P1382" t="inlineStr"/>
+      <c r="Q1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>78.76999664306641</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>76.43000030517578</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>76.43000030517578</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1383" t="inlineStr"/>
+      <c r="O1383" t="inlineStr"/>
+      <c r="P1383" t="inlineStr"/>
+      <c r="Q1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>79.98999786376953</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>73.09999847412109</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1384" t="inlineStr"/>
+      <c r="O1384" t="inlineStr"/>
+      <c r="P1384" t="inlineStr"/>
+      <c r="Q1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>78.94000244140625</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>75.30999755859375</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1385" t="inlineStr"/>
+      <c r="O1385" t="inlineStr"/>
+      <c r="P1385" t="inlineStr"/>
+      <c r="Q1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>78.90000152587891</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>79</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>76.09999847412109</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1386" t="inlineStr"/>
+      <c r="O1386" t="inlineStr"/>
+      <c r="P1386" t="inlineStr"/>
+      <c r="Q1386" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1386"/>
+  <dimension ref="A1:Q1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63039,6 +63039,411 @@
       <c r="P1386" t="inlineStr"/>
       <c r="Q1386" t="inlineStr"/>
     </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>72.72000122070312</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>72.72000122070312</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1387" t="inlineStr"/>
+      <c r="O1387" t="inlineStr"/>
+      <c r="P1387" t="inlineStr"/>
+      <c r="Q1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>77.80999755859375</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>77.80999755859375</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>76</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1388" t="inlineStr"/>
+      <c r="O1388" t="inlineStr"/>
+      <c r="P1388" t="inlineStr"/>
+      <c r="Q1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>75</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>72.19999694824219</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>72.19999694824219</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1389" t="inlineStr"/>
+      <c r="O1389" t="inlineStr"/>
+      <c r="P1389" t="inlineStr"/>
+      <c r="Q1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>69.90000152587891</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>72</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>68.58999633789062</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>69.16000366210938</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1390" t="inlineStr"/>
+      <c r="O1390" t="inlineStr"/>
+      <c r="P1390" t="inlineStr"/>
+      <c r="Q1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>71.90000152587891</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>65.70999908447266</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>65.91000366210938</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>25600</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1391" t="inlineStr"/>
+      <c r="O1391" t="inlineStr"/>
+      <c r="P1391" t="inlineStr"/>
+      <c r="Q1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>65.91000366210938</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>65.94999694824219</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>62.79999923706055</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>63.59999847412109</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1392" t="inlineStr"/>
+      <c r="O1392" t="inlineStr"/>
+      <c r="P1392" t="inlineStr"/>
+      <c r="Q1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>63.59999847412109</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>66.77999877929688</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>63.09999847412109</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>66.77999877929688</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>32800</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1393" t="inlineStr"/>
+      <c r="O1393" t="inlineStr"/>
+      <c r="P1393" t="inlineStr"/>
+      <c r="Q1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>69.98999786376953</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>70.11000061035156</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>69.76000213623047</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>70.11000061035156</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>25600</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1394" t="inlineStr"/>
+      <c r="O1394" t="inlineStr"/>
+      <c r="P1394" t="inlineStr"/>
+      <c r="Q1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>71.09999847412109</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>73.61000061035156</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>71.09999847412109</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>73.61000061035156</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>20800</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1395" t="inlineStr"/>
+      <c r="O1395" t="inlineStr"/>
+      <c r="P1395" t="inlineStr"/>
+      <c r="Q1395" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1395"/>
+  <dimension ref="A1:Q1403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63444,6 +63444,366 @@
       <c r="P1395" t="inlineStr"/>
       <c r="Q1395" t="inlineStr"/>
     </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>77.29000091552734</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>75.12999725341797</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>77.18000030517578</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>39200</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1396" t="inlineStr"/>
+      <c r="O1396" t="inlineStr"/>
+      <c r="P1396" t="inlineStr"/>
+      <c r="Q1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>73.61000061035156</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>77.18000030517578</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>73.33000183105469</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>58400</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1397" t="inlineStr"/>
+      <c r="O1397" t="inlineStr"/>
+      <c r="P1397" t="inlineStr"/>
+      <c r="Q1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>75.45999908447266</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>75.45999908447266</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1398" t="inlineStr"/>
+      <c r="O1398" t="inlineStr"/>
+      <c r="P1398" t="inlineStr"/>
+      <c r="Q1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>73.95999908447266</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>800</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1399" t="inlineStr"/>
+      <c r="O1399" t="inlineStr"/>
+      <c r="P1399" t="inlineStr"/>
+      <c r="Q1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>72.48999786376953</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>18</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1400" t="inlineStr"/>
+      <c r="O1400" t="inlineStr"/>
+      <c r="P1400" t="inlineStr"/>
+      <c r="Q1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>71.05000305175781</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1401" t="inlineStr"/>
+      <c r="O1401" t="inlineStr"/>
+      <c r="P1401" t="inlineStr"/>
+      <c r="Q1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>69.62999725341797</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>69.62999725341797</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>69.62999725341797</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>69.62999725341797</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>11200</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>20</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1402" t="inlineStr"/>
+      <c r="O1402" t="inlineStr"/>
+      <c r="P1402" t="inlineStr"/>
+      <c r="Q1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>69.72000122070312</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>69.72000122070312</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>68.23999786376953</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1403" t="inlineStr"/>
+      <c r="O1403" t="inlineStr"/>
+      <c r="P1403" t="inlineStr"/>
+      <c r="Q1403" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1403"/>
+  <dimension ref="A1:Q1412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63804,6 +63804,411 @@
       <c r="P1403" t="inlineStr"/>
       <c r="Q1403" t="inlineStr"/>
     </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>67.12999725341797</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>69.86000061035156</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>67.12999725341797</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>69.86000061035156</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1404" t="inlineStr"/>
+      <c r="O1404" t="inlineStr"/>
+      <c r="P1404" t="inlineStr"/>
+      <c r="Q1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>69.01000213623047</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>68.47000122070312</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>68.47000122070312</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1405" t="inlineStr"/>
+      <c r="O1405" t="inlineStr"/>
+      <c r="P1405" t="inlineStr"/>
+      <c r="Q1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>67.11000061035156</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>67.11000061035156</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>67.11000061035156</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>67.11000061035156</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1406" t="inlineStr"/>
+      <c r="O1406" t="inlineStr"/>
+      <c r="P1406" t="inlineStr"/>
+      <c r="Q1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>65.76999664306641</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>65.76999664306641</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>65.76999664306641</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>65.76999664306641</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1407" t="inlineStr"/>
+      <c r="O1407" t="inlineStr"/>
+      <c r="P1407" t="inlineStr"/>
+      <c r="Q1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>64.45999908447266</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>64.45999908447266</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>64.45999908447266</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>64.45999908447266</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>13</v>
+      </c>
+      <c r="N1408" t="inlineStr"/>
+      <c r="O1408" t="inlineStr"/>
+      <c r="P1408" t="inlineStr"/>
+      <c r="Q1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>63.18000030517578</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>63.18000030517578</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>63.18000030517578</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>63.18000030517578</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1409" t="inlineStr"/>
+      <c r="O1409" t="inlineStr"/>
+      <c r="P1409" t="inlineStr"/>
+      <c r="Q1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>17600</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1410" t="inlineStr"/>
+      <c r="O1410" t="inlineStr"/>
+      <c r="P1410" t="inlineStr"/>
+      <c r="Q1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1411" t="inlineStr"/>
+      <c r="O1411" t="inlineStr"/>
+      <c r="P1411" t="inlineStr"/>
+      <c r="Q1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>64.51000213623047</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>64.51000213623047</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>64.51000213623047</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>21600</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>14</v>
+      </c>
+      <c r="N1412" t="inlineStr"/>
+      <c r="O1412" t="inlineStr"/>
+      <c r="P1412" t="inlineStr"/>
+      <c r="Q1412" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1412"/>
+  <dimension ref="A1:Q1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64209,6 +64209,186 @@
       <c r="P1412" t="inlineStr"/>
       <c r="Q1412" t="inlineStr"/>
     </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>63.22000122070312</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>63.22000122070312</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>63.22000122070312</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>63.22000122070312</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1413" t="inlineStr"/>
+      <c r="O1413" t="inlineStr"/>
+      <c r="P1413" t="inlineStr"/>
+      <c r="Q1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>64.48000335693359</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>62.54999923706055</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>64.48000335693359</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1414" t="inlineStr"/>
+      <c r="O1414" t="inlineStr"/>
+      <c r="P1414" t="inlineStr"/>
+      <c r="Q1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>64.48000335693359</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>64.48000335693359</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>65.73000335693359</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1415" t="inlineStr"/>
+      <c r="O1415" t="inlineStr"/>
+      <c r="P1415" t="inlineStr"/>
+      <c r="Q1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>67.04000091552734</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>66</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>67.02999877929688</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>15200</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1416" t="inlineStr"/>
+      <c r="O1416" t="inlineStr"/>
+      <c r="P1416" t="inlineStr"/>
+      <c r="Q1416" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1416"/>
+  <dimension ref="A1:Q1419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64389,6 +64389,141 @@
       <c r="P1416" t="inlineStr"/>
       <c r="Q1416" t="inlineStr"/>
     </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1417" t="inlineStr"/>
+      <c r="O1417" t="inlineStr"/>
+      <c r="P1417" t="inlineStr"/>
+      <c r="Q1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>69.73000335693359</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>68.37000274658203</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>69.73000335693359</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1418" t="inlineStr"/>
+      <c r="O1418" t="inlineStr"/>
+      <c r="P1418" t="inlineStr"/>
+      <c r="Q1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>71.12000274658203</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>71.12000274658203</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>71.12000274658203</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>71.12000274658203</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1419" t="inlineStr"/>
+      <c r="O1419" t="inlineStr"/>
+      <c r="P1419" t="inlineStr"/>
+      <c r="Q1419" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1419"/>
+  <dimension ref="A1:Q1428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64524,6 +64524,411 @@
       <c r="P1419" t="inlineStr"/>
       <c r="Q1419" t="inlineStr"/>
     </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>73.90000152587891</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>74.66999816894531</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>73.90000152587891</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>74.66999816894531</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>64000</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1420" t="inlineStr"/>
+      <c r="O1420" t="inlineStr"/>
+      <c r="P1420" t="inlineStr"/>
+      <c r="Q1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>74.44999694824219</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1421" t="inlineStr"/>
+      <c r="O1421" t="inlineStr"/>
+      <c r="P1421" t="inlineStr"/>
+      <c r="Q1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>82.31999969482422</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>82.31999969482422</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>82.31999969482422</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>82.31999969482422</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>16800</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1422" t="inlineStr"/>
+      <c r="O1422" t="inlineStr"/>
+      <c r="P1422" t="inlineStr"/>
+      <c r="Q1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>86.43000030517578</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>86.43000030517578</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>86</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>86.43000030517578</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>23200</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1423" t="inlineStr"/>
+      <c r="O1423" t="inlineStr"/>
+      <c r="P1423" t="inlineStr"/>
+      <c r="Q1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>82.11000061035156</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>86.04000091552734</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>125600</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1424" t="inlineStr"/>
+      <c r="O1424" t="inlineStr"/>
+      <c r="P1424" t="inlineStr"/>
+      <c r="Q1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>81.73999786376953</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>84.09999847412109</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>81.73999786376953</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>81.73999786376953</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1425" t="inlineStr"/>
+      <c r="O1425" t="inlineStr"/>
+      <c r="P1425" t="inlineStr"/>
+      <c r="Q1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>77.80000305175781</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>79.79000091552734</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>77.66000366210938</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>77.66999816894531</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>42400</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1426" t="inlineStr"/>
+      <c r="O1426" t="inlineStr"/>
+      <c r="P1426" t="inlineStr"/>
+      <c r="Q1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>73.80000305175781</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>73.79000091552734</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>31200</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1427" t="inlineStr"/>
+      <c r="O1427" t="inlineStr"/>
+      <c r="P1427" t="inlineStr"/>
+      <c r="Q1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>73.81999969482422</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>70.12999725341797</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>27200</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>18</v>
+      </c>
+      <c r="N1428" t="inlineStr"/>
+      <c r="O1428" t="inlineStr"/>
+      <c r="P1428" t="inlineStr"/>
+      <c r="Q1428" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/WAA.BO.xlsx
+++ b/stock_historical_data/1d/WAA.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1428"/>
+  <dimension ref="A1:Q1438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64929,6 +64929,456 @@
       <c r="P1428" t="inlineStr"/>
       <c r="Q1428" t="inlineStr"/>
     </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>73.90000152587891</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>76.65000152587891</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>73.80000305175781</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>76.65000152587891</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1429" t="inlineStr"/>
+      <c r="O1429" t="inlineStr"/>
+      <c r="P1429" t="inlineStr"/>
+      <c r="Q1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>80.48000335693359</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>80.48000335693359</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>77</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>37600</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1430" t="inlineStr"/>
+      <c r="O1430" t="inlineStr"/>
+      <c r="P1430" t="inlineStr"/>
+      <c r="Q1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>77</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>73.15000152587891</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>74.15000152587891</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>18400</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1431" t="inlineStr"/>
+      <c r="O1431" t="inlineStr"/>
+      <c r="P1431" t="inlineStr"/>
+      <c r="Q1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>77.80000305175781</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>72.09999847412109</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>73.19999694824219</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1432" t="inlineStr"/>
+      <c r="O1432" t="inlineStr"/>
+      <c r="P1432" t="inlineStr"/>
+      <c r="Q1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>71.37000274658203</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>69.54000091552734</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>69.55999755859375</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>14400</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>19</v>
+      </c>
+      <c r="N1433" t="inlineStr"/>
+      <c r="O1433" t="inlineStr"/>
+      <c r="P1433" t="inlineStr"/>
+      <c r="Q1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>73.02999877929688</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>73.02999877929688</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>73.02999877929688</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>73.02999877929688</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1434" t="inlineStr"/>
+      <c r="O1434" t="inlineStr"/>
+      <c r="P1434" t="inlineStr"/>
+      <c r="Q1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>76.68000030517578</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>76.68000030517578</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>76.68000030517578</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>76.68000030517578</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>29600</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1435" t="inlineStr"/>
+      <c r="O1435" t="inlineStr"/>
+      <c r="P1435" t="inlineStr"/>
+      <c r="Q1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>78.30000305175781</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1436" t="inlineStr"/>
+      <c r="O1436" t="inlineStr"/>
+      <c r="P1436" t="inlineStr"/>
+      <c r="Q1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>84.44999694824219</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>84.52999877929688</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>83</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>84.52999877929688</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>36800</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1437" t="inlineStr"/>
+      <c r="O1437" t="inlineStr"/>
+      <c r="P1437" t="inlineStr"/>
+      <c r="Q1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>87.69999694824219</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>27200</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1438" t="inlineStr"/>
+      <c r="O1438" t="inlineStr"/>
+      <c r="P1438" t="inlineStr"/>
+      <c r="Q1438" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
